--- a/Db.xlsx
+++ b/Db.xlsx
@@ -584,6 +584,330 @@
   </cellStyleXfs>
   <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,6 +917,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,178 +941,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,190 +956,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,603 +1274,603 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="J1" s="65" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="111"/>
+      <c r="J1" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-      <c r="Q1" s="61" t="s">
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
+      <c r="Q1" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="62"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="123">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="96">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="124">
-        <v>1</v>
-      </c>
-      <c r="J3" s="68">
-        <v>1</v>
-      </c>
-      <c r="K3" s="30">
-        <v>1</v>
-      </c>
-      <c r="L3" s="30" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="97">
+        <v>1</v>
+      </c>
+      <c r="J3" s="41">
+        <v>1</v>
+      </c>
+      <c r="K3" s="19">
+        <v>1</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="19">
         <v>0</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="69">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="76">
-        <v>1</v>
-      </c>
-      <c r="R3" s="77" t="s">
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="49">
+        <v>1</v>
+      </c>
+      <c r="R3" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="125">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="98">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="126">
-        <v>2</v>
-      </c>
-      <c r="J4" s="70">
-        <v>2</v>
-      </c>
-      <c r="K4" s="28">
-        <v>2</v>
-      </c>
-      <c r="L4" s="28" t="s">
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="99">
+        <v>2</v>
+      </c>
+      <c r="J4" s="43">
+        <v>2</v>
+      </c>
+      <c r="K4" s="17">
+        <v>2</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="28">
-        <v>2</v>
-      </c>
-      <c r="N4" s="28" t="s">
+      <c r="M4" s="17">
+        <v>2</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="71">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="78">
-        <v>2</v>
-      </c>
-      <c r="R4" s="79" t="s">
+      <c r="O4" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>2</v>
+      </c>
+      <c r="R4" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="125">
+      <c r="A5" s="98">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
-        <v>2</v>
-      </c>
-      <c r="E5" s="126">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="99">
         <v>3</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="43">
         <v>3</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="17">
         <v>3</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="71">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="80">
+      <c r="O5" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="53">
         <v>3</v>
       </c>
-      <c r="R5" s="81" t="s">
+      <c r="R5" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="127">
+      <c r="A6" s="100">
         <v>4</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="128">
-        <v>1</v>
-      </c>
-      <c r="E6" s="129">
-        <v>1</v>
-      </c>
-      <c r="J6" s="70">
+      <c r="D6" s="101">
+        <v>1</v>
+      </c>
+      <c r="E6" s="102">
+        <v>1</v>
+      </c>
+      <c r="J6" s="43">
         <v>4</v>
       </c>
-      <c r="K6" s="28">
-        <v>1</v>
-      </c>
-      <c r="L6" s="28" t="s">
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="17">
         <v>0</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="71">
+      <c r="O6" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J7" s="70">
+      <c r="J7" s="43">
         <v>5</v>
       </c>
-      <c r="K7" s="28">
-        <v>2</v>
-      </c>
-      <c r="L7" s="28" t="s">
+      <c r="K7" s="17">
+        <v>2</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="28">
-        <v>2</v>
-      </c>
-      <c r="N7" s="28" t="s">
+      <c r="M7" s="17">
+        <v>2</v>
+      </c>
+      <c r="N7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J8" s="72">
+      <c r="J8" s="45">
         <v>6</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="46">
         <v>3</v>
       </c>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="74" t="s">
+      <c r="M8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="G11" s="12" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="119"/>
+      <c r="G11" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="J11" s="38" t="s">
+      <c r="H11" s="121"/>
+      <c r="J11" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="86">
-        <v>1</v>
-      </c>
-      <c r="K12" s="37">
-        <v>1</v>
-      </c>
-      <c r="L12" s="87">
+      <c r="J12" s="59">
+        <v>1</v>
+      </c>
+      <c r="K12" s="23">
+        <v>1</v>
+      </c>
+      <c r="L12" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="118">
-        <v>1</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="91">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="105">
-        <v>1</v>
-      </c>
-      <c r="H13" s="106">
-        <v>1</v>
-      </c>
-      <c r="J13" s="88">
-        <v>2</v>
-      </c>
-      <c r="K13" s="89">
-        <v>2</v>
-      </c>
-      <c r="L13" s="90">
+      <c r="G13" s="78">
+        <v>1</v>
+      </c>
+      <c r="H13" s="79">
+        <v>1</v>
+      </c>
+      <c r="J13" s="61">
+        <v>2</v>
+      </c>
+      <c r="K13" s="62">
+        <v>2</v>
+      </c>
+      <c r="L13" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="120">
-        <v>2</v>
-      </c>
-      <c r="B14" s="121" t="s">
+      <c r="A14" s="93">
+        <v>2</v>
+      </c>
+      <c r="B14" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="107">
-        <v>1</v>
-      </c>
-      <c r="H14" s="108">
+      <c r="G14" s="80">
+        <v>1</v>
+      </c>
+      <c r="H14" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="107">
-        <v>1</v>
-      </c>
-      <c r="H15" s="108">
+      <c r="G15" s="80">
+        <v>1</v>
+      </c>
+      <c r="H15" s="81">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="107">
-        <v>2</v>
-      </c>
-      <c r="H16" s="108">
-        <v>1</v>
-      </c>
-      <c r="J16" s="41" t="s">
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="G16" s="80">
+        <v>2</v>
+      </c>
+      <c r="H16" s="81">
+        <v>1</v>
+      </c>
+      <c r="J16" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
-      <c r="O16" s="57" t="s">
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="105"/>
+      <c r="O16" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="58"/>
+      <c r="P16" s="129"/>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="107">
-        <v>2</v>
-      </c>
-      <c r="H17" s="108">
-        <v>2</v>
-      </c>
-      <c r="J17" s="46" t="s">
+      <c r="G17" s="80">
+        <v>2</v>
+      </c>
+      <c r="H17" s="81">
+        <v>2</v>
+      </c>
+      <c r="J17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="47" t="s">
+      <c r="K17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="59" t="s">
+      <c r="O17" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="111">
-        <v>1</v>
-      </c>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="84">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="E18" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="109">
-        <v>2</v>
-      </c>
-      <c r="H18" s="110">
+      <c r="G18" s="82">
+        <v>2</v>
+      </c>
+      <c r="H18" s="83">
         <v>3</v>
       </c>
-      <c r="J18" s="91">
-        <v>1</v>
-      </c>
-      <c r="K18" s="45" t="s">
+      <c r="J18" s="64">
+        <v>1</v>
+      </c>
+      <c r="K18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="45">
-        <v>1</v>
-      </c>
-      <c r="M18" s="92">
+      <c r="L18" s="28">
+        <v>1</v>
+      </c>
+      <c r="M18" s="65">
         <v>10</v>
       </c>
-      <c r="O18" s="82">
-        <v>1</v>
-      </c>
-      <c r="P18" s="83" t="s">
+      <c r="O18" s="55">
+        <v>1</v>
+      </c>
+      <c r="P18" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113">
-        <v>2</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="86">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="93">
-        <v>2</v>
-      </c>
-      <c r="K19" s="44" t="s">
+      <c r="J19" s="66">
+        <v>2</v>
+      </c>
+      <c r="K19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="44">
-        <v>2</v>
-      </c>
-      <c r="M19" s="94">
+      <c r="L19" s="27">
+        <v>2</v>
+      </c>
+      <c r="M19" s="67">
         <v>5</v>
       </c>
-      <c r="O19" s="84">
-        <v>2</v>
-      </c>
-      <c r="P19" s="85" t="s">
+      <c r="O19" s="57">
+        <v>2</v>
+      </c>
+      <c r="P19" s="58" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="115">
+      <c r="A20" s="88">
         <v>3</v>
       </c>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D20" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="95">
+      <c r="J20" s="68">
         <v>3</v>
       </c>
-      <c r="K20" s="96" t="s">
+      <c r="K20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="96">
-        <v>1</v>
-      </c>
-      <c r="M20" s="97">
+      <c r="L20" s="69">
+        <v>1</v>
+      </c>
+      <c r="M20" s="70">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="55" t="s">
+      <c r="K23" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="56" t="s">
+      <c r="M23" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J24" s="98">
-        <v>1</v>
-      </c>
-      <c r="K24" s="53" t="s">
+      <c r="J24" s="71">
+        <v>1</v>
+      </c>
+      <c r="K24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="53" t="s">
+      <c r="L24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="99">
+      <c r="M24" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J25" s="100">
-        <v>2</v>
-      </c>
-      <c r="K25" s="52" t="s">
+      <c r="J25" s="73">
+        <v>2</v>
+      </c>
+      <c r="K25" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="52" t="s">
+      <c r="L25" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="M25" s="101">
+      <c r="M25" s="74">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J26" s="102">
+      <c r="J26" s="75">
         <v>3</v>
       </c>
-      <c r="K26" s="103" t="s">
+      <c r="K26" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="103" t="s">
+      <c r="L26" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="104">
+      <c r="M26" s="77">
         <v>3</v>
       </c>
     </row>

--- a/Db.xlsx
+++ b/Db.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -92,9 +89,6 @@
     <t>30к</t>
   </si>
   <si>
-    <t>NameEm</t>
-  </si>
-  <si>
     <t>"Ivan"</t>
   </si>
   <si>
@@ -237,6 +231,27 @@
   </si>
   <si>
     <t>AuthorId?</t>
+  </si>
+  <si>
+    <t>ClientId</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>TrainerId</t>
+  </si>
+  <si>
+    <t>PWId</t>
+  </si>
+  <si>
+    <t>SubId</t>
+  </si>
+  <si>
+    <t>AuthorId</t>
+  </si>
+  <si>
+    <t>PosId</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1275,14 +1290,14 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
       <c r="D1" s="110"/>
       <c r="E1" s="111"/>
       <c r="J1" s="122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="123"/>
       <c r="L1" s="123"/>
@@ -1290,49 +1305,49 @@
       <c r="N1" s="123"/>
       <c r="O1" s="124"/>
       <c r="Q1" s="115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>13</v>
-      </c>
       <c r="O2" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="40" t="s">
         <v>0</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1340,11 +1355,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
@@ -1358,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M3" s="19">
         <v>0</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" s="42">
         <v>1</v>
@@ -1373,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1381,11 +1396,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
@@ -1399,13 +1414,13 @@
         <v>2</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4" s="17">
         <v>2</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O4" s="44">
         <v>1</v>
@@ -1414,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1422,10 +1437,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -1440,13 +1455,13 @@
         <v>3</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="O5" s="44">
         <v>1</v>
@@ -1455,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="R5" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1463,10 +1478,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="101" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="101">
         <v>1</v>
@@ -1481,13 +1496,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M6" s="17">
         <v>0</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" s="44">
         <v>2</v>
@@ -1501,13 +1516,13 @@
         <v>2</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M7" s="17">
         <v>2</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O7" s="44">
         <v>2</v>
@@ -1521,13 +1536,13 @@
         <v>3</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="46" t="s">
         <v>20</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>21</v>
       </c>
       <c r="O8" s="48">
         <v>2</v>
@@ -1536,46 +1551,46 @@
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J10" s="125" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K10" s="126"/>
       <c r="L10" s="127"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="118"/>
       <c r="C11" s="119"/>
       <c r="G11" s="120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="121"/>
       <c r="J11" s="24" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J12" s="59">
         <v>1</v>
@@ -1592,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="78">
         <v>1</v>
@@ -1618,10 +1633,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="80">
         <v>1</v>
@@ -1640,7 +1655,7 @@
     </row>
     <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="113"/>
       <c r="C16" s="113"/>
@@ -1653,32 +1668,32 @@
         <v>1</v>
       </c>
       <c r="J16" s="103" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K16" s="104"/>
       <c r="L16" s="104"/>
       <c r="M16" s="105"/>
       <c r="O16" s="128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P16" s="129"/>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="G17" s="80">
         <v>2</v>
       </c>
@@ -1686,22 +1701,22 @@
         <v>2</v>
       </c>
       <c r="J17" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="30" t="s">
-        <v>1</v>
-      </c>
       <c r="L17" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="38" t="s">
         <v>0</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1709,16 +1724,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="82">
         <v>2</v>
@@ -1730,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L18" s="28">
         <v>1</v>
@@ -1742,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1750,22 +1765,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J19" s="66">
         <v>2</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L19" s="27">
         <v>2</v>
@@ -1777,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1785,22 +1800,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J20" s="68">
         <v>3</v>
       </c>
       <c r="K20" s="69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L20" s="69">
         <v>1</v>
@@ -1812,7 +1827,7 @@
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J22" s="106" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K22" s="107"/>
       <c r="L22" s="107"/>
@@ -1820,16 +1835,16 @@
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J23" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="35" t="s">
-        <v>1</v>
-      </c>
       <c r="L23" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1837,10 +1852,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24" s="72">
         <v>1</v>
@@ -1851,10 +1866,10 @@
         <v>2</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M25" s="74">
         <v>2</v>
@@ -1865,10 +1880,10 @@
         <v>3</v>
       </c>
       <c r="K26" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L26" s="76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M26" s="77">
         <v>3</v>

--- a/Db.xlsx
+++ b/Db.xlsx
@@ -212,12 +212,6 @@
     <t>SubId?</t>
   </si>
   <si>
-    <t>IdGym?</t>
-  </si>
-  <si>
-    <t>IdTrMach?</t>
-  </si>
-  <si>
     <t>PosId?</t>
   </si>
   <si>
@@ -252,6 +246,12 @@
   </si>
   <si>
     <t>PosId</t>
+  </si>
+  <si>
+    <t>TrMachId?</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>61</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R2" s="40" t="s">
         <v>0</v>
@@ -1567,13 +1567,13 @@
       </c>
       <c r="H11" s="121"/>
       <c r="J11" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1587,10 +1587,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J12" s="59">
         <v>1</v>
@@ -1701,19 +1701,19 @@
         <v>2</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K17" s="30" t="s">
         <v>0</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M17" s="31" t="s">
         <v>45</v>
       </c>
       <c r="O17" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P17" s="38" t="s">
         <v>0</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J23" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K23" s="35" t="s">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>50</v>
       </c>
       <c r="M23" s="36" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
         <v>54</v>
       </c>
       <c r="M24" s="72">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -1872,7 +1872,7 @@
         <v>55</v>
       </c>
       <c r="M25" s="74">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
